--- a/resources/LangMod/EN/Dialog/Drama/kiria.xlsx
+++ b/resources/LangMod/EN/Dialog/Drama/kiria.xlsx
@@ -189,7 +189,7 @@
     <t xml:space="preserve">acceptQuest</t>
   </si>
   <si>
-    <t xml:space="preserve">kiria_map_quest</t>
+    <t xml:space="preserve">kiria_quest</t>
   </si>
   <si>
     <t xml:space="preserve">「…ファイルシステムをスキャン中…破損セクターを特定中…」</t>
@@ -680,12 +680,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+      <selection pane="bottomLeft" activeCell="F76" activeCellId="0" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12936,6 +12936,7 @@
       <c r="I1000" s="4"/>
       <c r="J1000" s="5"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
